--- a/biology/Médecine/Georges_Mouriquand/Georges_Mouriquand.xlsx
+++ b/biology/Médecine/Georges_Mouriquand/Georges_Mouriquand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Mouriquand né le 18 juin 1880 à Beaufort-sur-Gervanne, et, mort le 23 septembre 1966  dans le 1er arrondissement de Lyon[1], est un pédiatre français, qui contribua notablement à la diffusion des idées pastoriennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Mouriquand né le 18 juin 1880 à Beaufort-sur-Gervanne, et, mort le 23 septembre 1966  dans le 1er arrondissement de Lyon, est un pédiatre français, qui contribua notablement à la diffusion des idées pastoriennes.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les études
-Né dans la Drôme à Beaufort sur Gervanne, région qui fut profondément bouleversée par la maladie du ver à soie, trop tard diagnostiquée par Louis Pasteur, Georges Émile Jean Achille Paul Mouriquand, quitte son village successivement pour Valence, puis pour Lyon où il devient pédiatre, de grande renommée au fil des années.
-Les travaux
-Dans le droit fil de toute l'école marquée par l'influence de Pasteur, il va s'intéresser aux carences vitaminiques chez l'enfant, à la diététique de l'enfant et enfin à la tuberculose chez l'enfant. Accessoirement, il s'intéresse aux effets des conditions météorologiques sur le comportement des nouveau-nés.  Il devient chef de service de pédiatrie à l'hôpital Edouard Herriot de Lyon, le principal de la ville. Il est membre correspondant de l'Académie de Médecine. Un certain nombre de ces travaux seront conduits en collaboration avec sa fille le Dr. Violette Edel. Il sera fréquemment amené à se rendre en différentes régions du monde pour défendre ses idées dans des congrès. 
-Passionné de peinture et de littérature, Georges Mouriquand entretiendra des rapports amicaux avec de nombreux artistes et sera un grand bibliophile.
+          <t>Les études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans la Drôme à Beaufort sur Gervanne, région qui fut profondément bouleversée par la maladie du ver à soie, trop tard diagnostiquée par Louis Pasteur, Georges Émile Jean Achille Paul Mouriquand, quitte son village successivement pour Valence, puis pour Lyon où il devient pédiatre, de grande renommée au fil des années.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les travaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le droit fil de toute l'école marquée par l'influence de Pasteur, il va s'intéresser aux carences vitaminiques chez l'enfant, à la diététique de l'enfant et enfin à la tuberculose chez l'enfant. Accessoirement, il s'intéresse aux effets des conditions météorologiques sur le comportement des nouveau-nés.  Il devient chef de service de pédiatrie à l'hôpital Edouard Herriot de Lyon, le principal de la ville. Il est membre correspondant de l'Académie de Médecine. Un certain nombre de ces travaux seront conduits en collaboration avec sa fille le Dr. Violette Edel. Il sera fréquemment amené à se rendre en différentes régions du monde pour défendre ses idées dans des congrès. 
+Passionné de peinture et de littérature, Georges Mouriquand entretiendra des rapports amicaux avec de nombreux artistes et sera un grand bibliophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Mouriquand</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Mouriquand</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recherches sur le diagnostic de la broncho-pneumonie tuberculeuse infantile, A. Storck, 1906
 La Maladie de Heine-Médin et système nerveux végétatif (avec Paul Sedallian, Georges Morin et Jean Dechaume), Presse Médicale, Masson, 1930
